--- a/05_functional_enrichment/funciones_72_48_cc_ups.xlsx
+++ b/05_functional_enrichment/funciones_72_48_cc_ups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -47,121 +47,118 @@
     <t>GO:0045495</t>
   </si>
   <si>
+    <t>GO:0005751</t>
+  </si>
+  <si>
     <t>GO:0043186</t>
   </si>
   <si>
+    <t>GO:0045277</t>
+  </si>
+  <si>
+    <t>GO:0070069</t>
+  </si>
+  <si>
+    <t>GO:0098800</t>
+  </si>
+  <si>
+    <t>GO:0005743</t>
+  </si>
+  <si>
+    <t>GO:0098798</t>
+  </si>
+  <si>
+    <t>GO:0035805</t>
+  </si>
+  <si>
+    <t>GO:0005740</t>
+  </si>
+  <si>
     <t>GO:0019866</t>
   </si>
   <si>
-    <t>GO:0005743</t>
-  </si>
-  <si>
-    <t>GO:0005740</t>
-  </si>
-  <si>
     <t>GO:0036464</t>
   </si>
   <si>
-    <t>GO:0032592</t>
-  </si>
-  <si>
     <t>GO:0035770</t>
   </si>
   <si>
     <t>GO:0031966</t>
   </si>
   <si>
-    <t>GO:0098573</t>
+    <t>GO:0005746</t>
+  </si>
+  <si>
+    <t>GO:0098803</t>
   </si>
   <si>
     <t>GO:0034702</t>
   </si>
   <si>
+    <t>GO:0070469</t>
+  </si>
+  <si>
     <t>GO:0005923</t>
   </si>
   <si>
     <t>GO:0070160</t>
   </si>
   <si>
+    <t>GO:0001750</t>
+  </si>
+  <si>
     <t>GO:0043296</t>
   </si>
   <si>
-    <t>GO:0031301</t>
-  </si>
-  <si>
-    <t>GO:0001750</t>
-  </si>
-  <si>
     <t>GO:0034707</t>
   </si>
   <si>
-    <t>GO:0031300</t>
-  </si>
-  <si>
-    <t>GO:0031305</t>
-  </si>
-  <si>
     <t>GO:0097733</t>
   </si>
   <si>
     <t>GO:0097731</t>
   </si>
   <si>
-    <t>GO:0031304</t>
+    <t>GO:0008287</t>
+  </si>
+  <si>
+    <t>GO:1903293</t>
   </si>
   <si>
     <t>GO:1902495</t>
   </si>
   <si>
-    <t>GO:0008287</t>
-  </si>
-  <si>
-    <t>GO:1903293</t>
-  </si>
-  <si>
-    <t>GO:0098800</t>
-  </si>
-  <si>
     <t>GO:1990351</t>
   </si>
   <si>
-    <t>GO:0098798</t>
+    <t>GO:0097730</t>
   </si>
   <si>
     <t>GO:0061617</t>
   </si>
   <si>
-    <t>GO:0005751</t>
-  </si>
-  <si>
-    <t>GO:0097730</t>
-  </si>
-  <si>
-    <t>GO:0005746</t>
-  </si>
-  <si>
     <t>GO:0005742</t>
   </si>
   <si>
+    <t>GO:0030121</t>
+  </si>
+  <si>
     <t>GO:0098799</t>
   </si>
   <si>
-    <t>GO:0005639</t>
+    <t>GO:0034703</t>
+  </si>
+  <si>
+    <t>GO:0000164</t>
   </si>
   <si>
     <t>GO:0005849</t>
   </si>
   <si>
-    <t>GO:0031229</t>
-  </si>
-  <si>
-    <t>GO:0000164</t>
-  </si>
-  <si>
-    <t>GO:0070469</t>
-  </si>
-  <si>
-    <t>GO:0034703</t>
+    <t>GO:0012510</t>
+  </si>
+  <si>
+    <t>GO:0030130</t>
   </si>
   <si>
     <t>GO:0000159</t>
@@ -170,243 +167,264 @@
     <t>GO:0001518</t>
   </si>
   <si>
-    <t>GO:0045277</t>
-  </si>
-  <si>
     <t>GO:0030687</t>
   </si>
   <si>
     <t>GO:0034706</t>
   </si>
   <si>
+    <t>GO:0016605</t>
+  </si>
+  <si>
+    <t>GO:0009897</t>
+  </si>
+  <si>
+    <t>GO:0030140</t>
+  </si>
+  <si>
+    <t>GO:0030131</t>
+  </si>
+  <si>
     <t>GO:1905348</t>
   </si>
   <si>
-    <t>GO:0016605</t>
-  </si>
-  <si>
-    <t>GO:0070069</t>
+    <t>GO:0030125</t>
+  </si>
+  <si>
+    <t>GO:0030660</t>
+  </si>
+  <si>
+    <t>GO:0005758</t>
+  </si>
+  <si>
+    <t>GO:0010494</t>
+  </si>
+  <si>
+    <t>GO:0031970</t>
+  </si>
+  <si>
+    <t>GO:0016604</t>
+  </si>
+  <si>
+    <t>GO:0009986</t>
+  </si>
+  <si>
+    <t>GO:0098552</t>
+  </si>
+  <si>
+    <t>GO:0005905</t>
+  </si>
+  <si>
+    <t>GO:0030119</t>
+  </si>
+  <si>
+    <t>GO:0043204</t>
+  </si>
+  <si>
+    <t>GO:0048471</t>
+  </si>
+  <si>
+    <t>GO:0030665</t>
+  </si>
+  <si>
+    <t>GO:0034704</t>
+  </si>
+  <si>
+    <t>GO:0030175</t>
+  </si>
+  <si>
+    <t>GO:0030118</t>
+  </si>
+  <si>
+    <t>GO:0005769</t>
+  </si>
+  <si>
+    <t>GO:0005798</t>
+  </si>
+  <si>
+    <t>GO:0005604</t>
+  </si>
+  <si>
+    <t>GO:0030120</t>
+  </si>
+  <si>
+    <t>GO:0005911</t>
+  </si>
+  <si>
+    <t>GO:0030018</t>
+  </si>
+  <si>
+    <t>GO:0030027</t>
+  </si>
+  <si>
+    <t>GO:0031674</t>
+  </si>
+  <si>
+    <t>GO:0005581</t>
+  </si>
+  <si>
+    <t>GO:0030136</t>
+  </si>
+  <si>
+    <t>GO:0031234</t>
+  </si>
+  <si>
+    <t>GO:0098858</t>
+  </si>
+  <si>
+    <t>GO:0030117</t>
+  </si>
+  <si>
+    <t>GO:0048475</t>
+  </si>
+  <si>
+    <t>GO:0030312</t>
+  </si>
+  <si>
+    <t>GO:0031012</t>
+  </si>
+  <si>
+    <t>GO:0030684</t>
+  </si>
+  <si>
+    <t>GO:0030662</t>
+  </si>
+  <si>
+    <t>GO:0055037</t>
+  </si>
+  <si>
+    <t>GO:0062023</t>
+  </si>
+  <si>
+    <t>GO:0009898</t>
+  </si>
+  <si>
+    <t>GO:0000228</t>
+  </si>
+  <si>
+    <t>GO:0030658</t>
+  </si>
+  <si>
+    <t>GO:0030425</t>
+  </si>
+  <si>
+    <t>GO:0097447</t>
+  </si>
+  <si>
+    <t>GO:0005741</t>
+  </si>
+  <si>
+    <t>GO:0070161</t>
+  </si>
+  <si>
+    <t>GO:0043025</t>
+  </si>
+  <si>
+    <t>GO:0098562</t>
+  </si>
+  <si>
+    <t>GO:0044297</t>
+  </si>
+  <si>
+    <t>GO:0019867</t>
+  </si>
+  <si>
+    <t>GO:0031968</t>
+  </si>
+  <si>
+    <t>GO:0019897</t>
+  </si>
+  <si>
+    <t>GO:0005730</t>
+  </si>
+  <si>
+    <t>GO:0016324</t>
+  </si>
+  <si>
+    <t>GO:0005765</t>
+  </si>
+  <si>
+    <t>GO:0098852</t>
+  </si>
+  <si>
+    <t>GO:0030017</t>
+  </si>
+  <si>
+    <t>GO:0045177</t>
+  </si>
+  <si>
+    <t>GO:0031252</t>
+  </si>
+  <si>
+    <t>GO:0036477</t>
+  </si>
+  <si>
+    <t>GO:0030016</t>
+  </si>
+  <si>
+    <t>GO:0043292</t>
+  </si>
+  <si>
+    <t>GO:0030135</t>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>GO:0005929</t>
+  </si>
+  <si>
+    <t>GO:0005774</t>
+  </si>
+  <si>
+    <t>GO:0045211</t>
+  </si>
+  <si>
+    <t>GO:0019898</t>
   </si>
   <si>
     <t>GO:0032993</t>
   </si>
   <si>
-    <t>GO:0005637</t>
-  </si>
-  <si>
-    <t>GO:0043204</t>
-  </si>
-  <si>
-    <t>GO:0010494</t>
-  </si>
-  <si>
-    <t>GO:0048471</t>
-  </si>
-  <si>
-    <t>GO:0005758</t>
-  </si>
-  <si>
-    <t>GO:0031970</t>
-  </si>
-  <si>
-    <t>GO:0016604</t>
-  </si>
-  <si>
-    <t>GO:0005769</t>
-  </si>
-  <si>
-    <t>GO:0030175</t>
-  </si>
-  <si>
-    <t>GO:0034704</t>
-  </si>
-  <si>
-    <t>GO:0030173</t>
-  </si>
-  <si>
-    <t>GO:0031228</t>
-  </si>
-  <si>
-    <t>GO:0005911</t>
-  </si>
-  <si>
-    <t>GO:0005581</t>
-  </si>
-  <si>
-    <t>GO:0030018</t>
-  </si>
-  <si>
-    <t>GO:0031965</t>
-  </si>
-  <si>
-    <t>GO:0019005</t>
-  </si>
-  <si>
-    <t>GO:0031674</t>
-  </si>
-  <si>
-    <t>GO:0030684</t>
-  </si>
-  <si>
-    <t>GO:0098803</t>
-  </si>
-  <si>
-    <t>GO:0030027</t>
-  </si>
-  <si>
-    <t>GO:0030117</t>
-  </si>
-  <si>
-    <t>GO:0048475</t>
-  </si>
-  <si>
-    <t>GO:0098858</t>
-  </si>
-  <si>
-    <t>GO:0070161</t>
-  </si>
-  <si>
-    <t>GO:0055037</t>
-  </si>
-  <si>
-    <t>GO:0098552</t>
-  </si>
-  <si>
-    <t>GO:0031234</t>
-  </si>
-  <si>
-    <t>GO:0030425</t>
-  </si>
-  <si>
-    <t>GO:0097447</t>
-  </si>
-  <si>
-    <t>GO:0009986</t>
-  </si>
-  <si>
-    <t>GO:0009897</t>
-  </si>
-  <si>
-    <t>GO:0000228</t>
-  </si>
-  <si>
-    <t>GO:0005741</t>
-  </si>
-  <si>
-    <t>GO:0043025</t>
-  </si>
-  <si>
-    <t>GO:0005730</t>
-  </si>
-  <si>
-    <t>GO:0044297</t>
-  </si>
-  <si>
-    <t>GO:0005765</t>
-  </si>
-  <si>
-    <t>GO:0098852</t>
-  </si>
-  <si>
-    <t>GO:0019867</t>
-  </si>
-  <si>
-    <t>GO:0031968</t>
-  </si>
-  <si>
-    <t>GO:0016324</t>
-  </si>
-  <si>
-    <t>GO:0009898</t>
-  </si>
-  <si>
-    <t>GO:0045177</t>
-  </si>
-  <si>
-    <t>GO:0098562</t>
-  </si>
-  <si>
-    <t>GO:0030017</t>
-  </si>
-  <si>
-    <t>GO:0036477</t>
-  </si>
-  <si>
-    <t>GO:0019897</t>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>GO:0030016</t>
-  </si>
-  <si>
-    <t>GO:0043292</t>
-  </si>
-  <si>
-    <t>GO:0031461</t>
-  </si>
-  <si>
-    <t>GO:0031252</t>
-  </si>
-  <si>
-    <t>GO:0005774</t>
-  </si>
-  <si>
-    <t>GO:0005635</t>
-  </si>
-  <si>
-    <t>GO:0005929</t>
-  </si>
-  <si>
-    <t>GO:0045211</t>
-  </si>
-  <si>
-    <t>GO:0030312</t>
-  </si>
-  <si>
-    <t>GO:0031012</t>
-  </si>
-  <si>
-    <t>GO:0062023</t>
-  </si>
-  <si>
-    <t>GO:0019898</t>
+    <t>GO:0030133</t>
   </si>
   <si>
     <t>GO:0097060</t>
   </si>
   <si>
+    <t>GO:0030424</t>
+  </si>
+  <si>
     <t>GO:0005764</t>
   </si>
   <si>
     <t>GO:0000323</t>
   </si>
   <si>
-    <t>GO:0030424</t>
-  </si>
-  <si>
-    <t>GO:0000151</t>
-  </si>
-  <si>
     <t>GO:0005874</t>
   </si>
   <si>
+    <t>GO:0098794</t>
+  </si>
+  <si>
+    <t>GO:0000139</t>
+  </si>
+  <si>
+    <t>GO:0015629</t>
+  </si>
+  <si>
     <t>GO:0005773</t>
   </si>
   <si>
-    <t>GO:0098794</t>
-  </si>
-  <si>
-    <t>GO:0000139</t>
-  </si>
-  <si>
-    <t>GO:0015629</t>
-  </si>
-  <si>
     <t>GO:0099513</t>
   </si>
   <si>
+    <t>GO:0030659</t>
+  </si>
+  <si>
+    <t>GO:0012506</t>
+  </si>
+  <si>
     <t>GO:0098797</t>
   </si>
   <si>
@@ -416,34 +434,55 @@
     <t>pole plasm</t>
   </si>
   <si>
+    <t>mitochondrial respiratory chain complex IV</t>
+  </si>
+  <si>
     <t>P granule</t>
   </si>
   <si>
+    <t>respiratory chain complex IV</t>
+  </si>
+  <si>
+    <t>cytochrome complex</t>
+  </si>
+  <si>
+    <t>inner mitochondrial membrane protein complex</t>
+  </si>
+  <si>
+    <t>mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t>mitochondrial protein-containing complex</t>
+  </si>
+  <si>
+    <t>egg coat</t>
+  </si>
+  <si>
+    <t>mitochondrial envelope</t>
+  </si>
+  <si>
     <t>organelle inner membrane</t>
   </si>
   <si>
-    <t>mitochondrial inner membrane</t>
-  </si>
-  <si>
-    <t>mitochondrial envelope</t>
-  </si>
-  <si>
     <t>cytoplasmic ribonucleoprotein granule</t>
   </si>
   <si>
-    <t>integral component of mitochondrial membrane</t>
-  </si>
-  <si>
     <t>ribonucleoprotein granule</t>
   </si>
   <si>
     <t>mitochondrial membrane</t>
   </si>
   <si>
-    <t>intrinsic component of mitochondrial membrane</t>
-  </si>
-  <si>
-    <t>ion channel complex</t>
+    <t>mitochondrial respirasome</t>
+  </si>
+  <si>
+    <t>respiratory chain complex</t>
+  </si>
+  <si>
+    <t>monoatomic ion channel complex</t>
+  </si>
+  <si>
+    <t>respirasome</t>
   </si>
   <si>
     <t>bicellular tight junction</t>
@@ -452,85 +491,61 @@
     <t>tight junction</t>
   </si>
   <si>
+    <t>photoreceptor outer segment</t>
+  </si>
+  <si>
     <t>apical junction complex</t>
   </si>
   <si>
-    <t>integral component of organelle membrane</t>
-  </si>
-  <si>
-    <t>photoreceptor outer segment</t>
-  </si>
-  <si>
     <t>chloride channel complex</t>
   </si>
   <si>
-    <t>intrinsic component of organelle membrane</t>
-  </si>
-  <si>
-    <t>integral component of mitochondrial inner membrane</t>
-  </si>
-  <si>
     <t>photoreceptor cell cilium</t>
   </si>
   <si>
     <t>9+0 non-motile cilium</t>
   </si>
   <si>
-    <t>intrinsic component of mitochondrial inner membrane</t>
+    <t>protein serine/threonine phosphatase complex</t>
+  </si>
+  <si>
+    <t>phosphatase complex</t>
   </si>
   <si>
     <t>transmembrane transporter complex</t>
   </si>
   <si>
-    <t>protein serine/threonine phosphatase complex</t>
-  </si>
-  <si>
-    <t>phosphatase complex</t>
-  </si>
-  <si>
-    <t>inner mitochondrial membrane protein complex</t>
-  </si>
-  <si>
     <t>transporter complex</t>
   </si>
   <si>
-    <t>mitochondrial protein-containing complex</t>
+    <t>non-motile cilium</t>
   </si>
   <si>
     <t>MICOS complex</t>
   </si>
   <si>
-    <t>mitochondrial respiratory chain complex IV</t>
-  </si>
-  <si>
-    <t>non-motile cilium</t>
-  </si>
-  <si>
-    <t>mitochondrial respirasome</t>
-  </si>
-  <si>
     <t>mitochondrial outer membrane translocase complex</t>
   </si>
   <si>
+    <t>AP-1 adaptor complex</t>
+  </si>
+  <si>
     <t>outer mitochondrial membrane protein complex</t>
   </si>
   <si>
-    <t>integral component of nuclear inner membrane</t>
+    <t>cation channel complex</t>
+  </si>
+  <si>
+    <t>protein phosphatase type 1 complex</t>
   </si>
   <si>
     <t>mRNA cleavage factor complex</t>
   </si>
   <si>
-    <t>intrinsic component of nuclear inner membrane</t>
-  </si>
-  <si>
-    <t>protein phosphatase type 1 complex</t>
-  </si>
-  <si>
-    <t>respirasome</t>
-  </si>
-  <si>
-    <t>cation channel complex</t>
+    <t>trans-Golgi network transport vesicle membrane</t>
+  </si>
+  <si>
+    <t>clathrin coat of trans-Golgi network vesicle</t>
   </si>
   <si>
     <t>protein phosphatase type 2A complex</t>
@@ -539,243 +554,264 @@
     <t>voltage-gated sodium channel complex</t>
   </si>
   <si>
-    <t>respiratory chain complex IV</t>
-  </si>
-  <si>
     <t>preribosome, large subunit precursor</t>
   </si>
   <si>
     <t>sodium channel complex</t>
   </si>
   <si>
+    <t>PML body</t>
+  </si>
+  <si>
+    <t>external side of plasma membrane</t>
+  </si>
+  <si>
+    <t>trans-Golgi network transport vesicle</t>
+  </si>
+  <si>
+    <t>clathrin adaptor complex</t>
+  </si>
+  <si>
     <t>endonuclease complex</t>
   </si>
   <si>
-    <t>PML body</t>
-  </si>
-  <si>
-    <t>cytochrome complex</t>
+    <t>clathrin vesicle coat</t>
+  </si>
+  <si>
+    <t>Golgi-associated vesicle membrane</t>
+  </si>
+  <si>
+    <t>mitochondrial intermembrane space</t>
+  </si>
+  <si>
+    <t>cytoplasmic stress granule</t>
+  </si>
+  <si>
+    <t>organelle envelope lumen</t>
+  </si>
+  <si>
+    <t>nuclear body</t>
+  </si>
+  <si>
+    <t>cell surface</t>
+  </si>
+  <si>
+    <t>side of membrane</t>
+  </si>
+  <si>
+    <t>clathrin-coated pit</t>
+  </si>
+  <si>
+    <t>AP-type membrane coat adaptor complex</t>
+  </si>
+  <si>
+    <t>perikaryon</t>
+  </si>
+  <si>
+    <t>perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t>clathrin-coated vesicle membrane</t>
+  </si>
+  <si>
+    <t>calcium channel complex</t>
+  </si>
+  <si>
+    <t>filopodium</t>
+  </si>
+  <si>
+    <t>clathrin coat</t>
+  </si>
+  <si>
+    <t>early endosome</t>
+  </si>
+  <si>
+    <t>Golgi-associated vesicle</t>
+  </si>
+  <si>
+    <t>basement membrane</t>
+  </si>
+  <si>
+    <t>vesicle coat</t>
+  </si>
+  <si>
+    <t>cell-cell junction</t>
+  </si>
+  <si>
+    <t>Z disc</t>
+  </si>
+  <si>
+    <t>lamellipodium</t>
+  </si>
+  <si>
+    <t>I band</t>
+  </si>
+  <si>
+    <t>collagen trimer</t>
+  </si>
+  <si>
+    <t>clathrin-coated vesicle</t>
+  </si>
+  <si>
+    <t>extrinsic component of cytoplasmic side of plasma membrane</t>
+  </si>
+  <si>
+    <t>actin-based cell projection</t>
+  </si>
+  <si>
+    <t>membrane coat</t>
+  </si>
+  <si>
+    <t>coated membrane</t>
+  </si>
+  <si>
+    <t>external encapsulating structure</t>
+  </si>
+  <si>
+    <t>extracellular matrix</t>
+  </si>
+  <si>
+    <t>preribosome</t>
+  </si>
+  <si>
+    <t>coated vesicle membrane</t>
+  </si>
+  <si>
+    <t>recycling endosome</t>
+  </si>
+  <si>
+    <t>collagen-containing extracellular matrix</t>
+  </si>
+  <si>
+    <t>cytoplasmic side of plasma membrane</t>
+  </si>
+  <si>
+    <t>nuclear chromosome</t>
+  </si>
+  <si>
+    <t>transport vesicle membrane</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <t>dendritic tree</t>
+  </si>
+  <si>
+    <t>mitochondrial outer membrane</t>
+  </si>
+  <si>
+    <t>anchoring junction</t>
+  </si>
+  <si>
+    <t>neuronal cell body</t>
+  </si>
+  <si>
+    <t>cytoplasmic side of membrane</t>
+  </si>
+  <si>
+    <t>cell body</t>
+  </si>
+  <si>
+    <t>outer membrane</t>
+  </si>
+  <si>
+    <t>organelle outer membrane</t>
+  </si>
+  <si>
+    <t>extrinsic component of plasma membrane</t>
+  </si>
+  <si>
+    <t>nucleolus</t>
+  </si>
+  <si>
+    <t>apical plasma membrane</t>
+  </si>
+  <si>
+    <t>lysosomal membrane</t>
+  </si>
+  <si>
+    <t>lytic vacuole membrane</t>
+  </si>
+  <si>
+    <t>sarcomere</t>
+  </si>
+  <si>
+    <t>apical part of cell</t>
+  </si>
+  <si>
+    <t>cell leading edge</t>
+  </si>
+  <si>
+    <t>somatodendritic compartment</t>
+  </si>
+  <si>
+    <t>myofibril</t>
+  </si>
+  <si>
+    <t>contractile fiber</t>
+  </si>
+  <si>
+    <t>coated vesicle</t>
+  </si>
+  <si>
+    <t>endosome</t>
+  </si>
+  <si>
+    <t>cilium</t>
+  </si>
+  <si>
+    <t>vacuolar membrane</t>
+  </si>
+  <si>
+    <t>postsynaptic membrane</t>
+  </si>
+  <si>
+    <t>extrinsic component of membrane</t>
   </si>
   <si>
     <t>protein-DNA complex</t>
   </si>
   <si>
-    <t>nuclear inner membrane</t>
-  </si>
-  <si>
-    <t>perikaryon</t>
-  </si>
-  <si>
-    <t>cytoplasmic stress granule</t>
-  </si>
-  <si>
-    <t>perinuclear region of cytoplasm</t>
-  </si>
-  <si>
-    <t>mitochondrial intermembrane space</t>
-  </si>
-  <si>
-    <t>organelle envelope lumen</t>
-  </si>
-  <si>
-    <t>nuclear body</t>
-  </si>
-  <si>
-    <t>early endosome</t>
-  </si>
-  <si>
-    <t>filopodium</t>
-  </si>
-  <si>
-    <t>calcium channel complex</t>
-  </si>
-  <si>
-    <t>integral component of Golgi membrane</t>
-  </si>
-  <si>
-    <t>intrinsic component of Golgi membrane</t>
-  </si>
-  <si>
-    <t>cell-cell junction</t>
-  </si>
-  <si>
-    <t>collagen trimer</t>
-  </si>
-  <si>
-    <t>Z disc</t>
-  </si>
-  <si>
-    <t>nuclear membrane</t>
-  </si>
-  <si>
-    <t>SCF ubiquitin ligase complex</t>
-  </si>
-  <si>
-    <t>I band</t>
-  </si>
-  <si>
-    <t>preribosome</t>
-  </si>
-  <si>
-    <t>respiratory chain complex</t>
-  </si>
-  <si>
-    <t>lamellipodium</t>
-  </si>
-  <si>
-    <t>membrane coat</t>
-  </si>
-  <si>
-    <t>coated membrane</t>
-  </si>
-  <si>
-    <t>actin-based cell projection</t>
-  </si>
-  <si>
-    <t>anchoring junction</t>
-  </si>
-  <si>
-    <t>recycling endosome</t>
-  </si>
-  <si>
-    <t>side of membrane</t>
-  </si>
-  <si>
-    <t>extrinsic component of cytoplasmic side of plasma membrane</t>
-  </si>
-  <si>
-    <t>dendrite</t>
-  </si>
-  <si>
-    <t>dendritic tree</t>
-  </si>
-  <si>
-    <t>cell surface</t>
-  </si>
-  <si>
-    <t>external side of plasma membrane</t>
-  </si>
-  <si>
-    <t>nuclear chromosome</t>
-  </si>
-  <si>
-    <t>mitochondrial outer membrane</t>
-  </si>
-  <si>
-    <t>neuronal cell body</t>
-  </si>
-  <si>
-    <t>nucleolus</t>
-  </si>
-  <si>
-    <t>cell body</t>
-  </si>
-  <si>
-    <t>lysosomal membrane</t>
-  </si>
-  <si>
-    <t>lytic vacuole membrane</t>
-  </si>
-  <si>
-    <t>outer membrane</t>
-  </si>
-  <si>
-    <t>organelle outer membrane</t>
-  </si>
-  <si>
-    <t>apical plasma membrane</t>
-  </si>
-  <si>
-    <t>cytoplasmic side of plasma membrane</t>
-  </si>
-  <si>
-    <t>apical part of cell</t>
-  </si>
-  <si>
-    <t>cytoplasmic side of membrane</t>
-  </si>
-  <si>
-    <t>sarcomere</t>
-  </si>
-  <si>
-    <t>somatodendritic compartment</t>
-  </si>
-  <si>
-    <t>extrinsic component of plasma membrane</t>
-  </si>
-  <si>
-    <t>endosome</t>
-  </si>
-  <si>
-    <t>myofibril</t>
-  </si>
-  <si>
-    <t>contractile fiber</t>
-  </si>
-  <si>
-    <t>cullin-RING ubiquitin ligase complex</t>
-  </si>
-  <si>
-    <t>cell leading edge</t>
-  </si>
-  <si>
-    <t>vacuolar membrane</t>
-  </si>
-  <si>
-    <t>nuclear envelope</t>
-  </si>
-  <si>
-    <t>cilium</t>
-  </si>
-  <si>
-    <t>postsynaptic membrane</t>
-  </si>
-  <si>
-    <t>external encapsulating structure</t>
-  </si>
-  <si>
-    <t>extracellular matrix</t>
-  </si>
-  <si>
-    <t>collagen-containing extracellular matrix</t>
-  </si>
-  <si>
-    <t>extrinsic component of membrane</t>
+    <t>transport vesicle</t>
   </si>
   <si>
     <t>synaptic membrane</t>
   </si>
   <si>
+    <t>axon</t>
+  </si>
+  <si>
     <t>lysosome</t>
   </si>
   <si>
     <t>lytic vacuole</t>
   </si>
   <si>
-    <t>axon</t>
-  </si>
-  <si>
-    <t>ubiquitin ligase complex</t>
-  </si>
-  <si>
     <t>microtubule</t>
   </si>
   <si>
+    <t>postsynapse</t>
+  </si>
+  <si>
+    <t>Golgi membrane</t>
+  </si>
+  <si>
+    <t>actin cytoskeleton</t>
+  </si>
+  <si>
     <t>vacuole</t>
   </si>
   <si>
-    <t>postsynapse</t>
-  </si>
-  <si>
-    <t>Golgi membrane</t>
-  </si>
-  <si>
-    <t>actin cytoskeleton</t>
-  </si>
-  <si>
     <t>polymeric cytoskeletal fiber</t>
   </si>
   <si>
+    <t>cytoplasmic vesicle membrane</t>
+  </si>
+  <si>
+    <t>vesicle membrane</t>
+  </si>
+  <si>
     <t>plasma membrane protein complex</t>
   </si>
   <si>
@@ -785,327 +821,336 @@
     <t>3/137</t>
   </si>
   <si>
+    <t>5/137</t>
+  </si>
+  <si>
+    <t>7/137</t>
+  </si>
+  <si>
+    <t>6/137</t>
+  </si>
+  <si>
+    <t>2/137</t>
+  </si>
+  <si>
+    <t>9/137</t>
+  </si>
+  <si>
     <t>8/137</t>
   </si>
   <si>
-    <t>7/137</t>
-  </si>
-  <si>
-    <t>9/137</t>
-  </si>
-  <si>
-    <t>5/137</t>
-  </si>
-  <si>
-    <t>2/137</t>
-  </si>
-  <si>
     <t>1/137</t>
   </si>
   <si>
-    <t>27/18765</t>
-  </si>
-  <si>
-    <t>28/18765</t>
-  </si>
-  <si>
-    <t>26/18765</t>
-  </si>
-  <si>
-    <t>317/18765</t>
-  </si>
-  <si>
-    <t>287/18765</t>
-  </si>
-  <si>
-    <t>448/18765</t>
-  </si>
-  <si>
-    <t>112/18765</t>
-  </si>
-  <si>
-    <t>63/18765</t>
-  </si>
-  <si>
-    <t>119/18765</t>
-  </si>
-  <si>
-    <t>419/18765</t>
-  </si>
-  <si>
-    <t>67/18765</t>
-  </si>
-  <si>
-    <t>224/18765</t>
-  </si>
-  <si>
-    <t>88/18765</t>
-  </si>
-  <si>
-    <t>90/18765</t>
-  </si>
-  <si>
-    <t>98/18765</t>
-  </si>
-  <si>
-    <t>252/18765</t>
-  </si>
-  <si>
-    <t>42/18765</t>
-  </si>
-  <si>
-    <t>266/18765</t>
-  </si>
-  <si>
-    <t>47/18765</t>
-  </si>
-  <si>
-    <t>48/18765</t>
-  </si>
-  <si>
-    <t>49/18765</t>
-  </si>
-  <si>
-    <t>280/18765</t>
-  </si>
-  <si>
-    <t>53/18765</t>
-  </si>
-  <si>
-    <t>120/18765</t>
-  </si>
-  <si>
-    <t>286/18765</t>
-  </si>
-  <si>
-    <t>204/18765</t>
-  </si>
-  <si>
-    <t>10/18765</t>
-  </si>
-  <si>
-    <t>11/18765</t>
-  </si>
-  <si>
-    <t>13/18765</t>
-  </si>
-  <si>
-    <t>14/18765</t>
-  </si>
-  <si>
-    <t>16/18765</t>
-  </si>
-  <si>
-    <t>81/18765</t>
-  </si>
-  <si>
-    <t>169/18765</t>
-  </si>
-  <si>
-    <t>19/18765</t>
-  </si>
-  <si>
-    <t>20/18765</t>
-  </si>
-  <si>
-    <t>21/18765</t>
-  </si>
-  <si>
-    <t>24/18765</t>
-  </si>
-  <si>
-    <t>106/18765</t>
-  </si>
-  <si>
-    <t>30/18765</t>
-  </si>
-  <si>
-    <t>32/18765</t>
-  </si>
-  <si>
-    <t>34/18765</t>
-  </si>
-  <si>
-    <t>124/18765</t>
-  </si>
-  <si>
-    <t>38/18765</t>
-  </si>
-  <si>
-    <t>131/18765</t>
-  </si>
-  <si>
-    <t>143/18765</t>
-  </si>
-  <si>
-    <t>45/18765</t>
-  </si>
-  <si>
-    <t>50/18765</t>
-  </si>
-  <si>
-    <t>270/18765</t>
-  </si>
-  <si>
-    <t>60/18765</t>
-  </si>
-  <si>
-    <t>64/18765</t>
-  </si>
-  <si>
-    <t>66/18765</t>
-  </si>
-  <si>
-    <t>68/18765</t>
-  </si>
-  <si>
-    <t>70/18765</t>
-  </si>
-  <si>
-    <t>71/18765</t>
-  </si>
-  <si>
-    <t>74/18765</t>
-  </si>
-  <si>
-    <t>79/18765</t>
-  </si>
-  <si>
-    <t>337/18765</t>
-  </si>
-  <si>
-    <t>83/18765</t>
-  </si>
-  <si>
-    <t>353/18765</t>
-  </si>
-  <si>
-    <t>227/18765</t>
-  </si>
-  <si>
-    <t>366/18765</t>
-  </si>
-  <si>
-    <t>230/18765</t>
-  </si>
-  <si>
-    <t>241/18765</t>
-  </si>
-  <si>
-    <t>102/18765</t>
-  </si>
-  <si>
-    <t>103/18765</t>
-  </si>
-  <si>
-    <t>108/18765</t>
-  </si>
-  <si>
-    <t>110/18765</t>
-  </si>
-  <si>
-    <t>118/18765</t>
-  </si>
-  <si>
-    <t>122/18765</t>
-  </si>
-  <si>
-    <t>123/18765</t>
-  </si>
-  <si>
-    <t>128/18765</t>
-  </si>
-  <si>
-    <t>438/18765</t>
-  </si>
-  <si>
-    <t>133/18765</t>
-  </si>
-  <si>
-    <t>136/18765</t>
-  </si>
-  <si>
-    <t>140/18765</t>
-  </si>
-  <si>
-    <t>142/18765</t>
-  </si>
-  <si>
-    <t>150/18765</t>
-  </si>
-  <si>
-    <t>153/18765</t>
-  </si>
-  <si>
-    <t>320/18765</t>
-  </si>
-  <si>
-    <t>358/18765</t>
-  </si>
-  <si>
-    <t>190/18765</t>
-  </si>
-  <si>
-    <t>202/18765</t>
-  </si>
-  <si>
-    <t>211/18765</t>
-  </si>
-  <si>
-    <t>215/18765</t>
-  </si>
-  <si>
-    <t>216/18765</t>
-  </si>
-  <si>
-    <t>229/18765</t>
-  </si>
-  <si>
-    <t>235/18765</t>
-  </si>
-  <si>
-    <t>257/18765</t>
-  </si>
-  <si>
-    <t>278/18765</t>
-  </si>
-  <si>
-    <t>281/18765</t>
-  </si>
-  <si>
-    <t>309/18765</t>
-  </si>
-  <si>
-    <t>328/18765</t>
-  </si>
-  <si>
-    <t>400/18765</t>
-  </si>
-  <si>
-    <t>430/18765</t>
+    <t>26/18767</t>
+  </si>
+  <si>
+    <t>27/18767</t>
+  </si>
+  <si>
+    <t>24/18767</t>
+  </si>
+  <si>
+    <t>25/18767</t>
+  </si>
+  <si>
+    <t>29/18767</t>
+  </si>
+  <si>
+    <t>36/18767</t>
+  </si>
+  <si>
+    <t>135/18767</t>
+  </si>
+  <si>
+    <t>278/18767</t>
+  </si>
+  <si>
+    <t>216/18767</t>
+  </si>
+  <si>
+    <t>15/18767</t>
+  </si>
+  <si>
+    <t>449/18767</t>
+  </si>
+  <si>
+    <t>295/18767</t>
+  </si>
+  <si>
+    <t>112/18767</t>
+  </si>
+  <si>
+    <t>119/18767</t>
+  </si>
+  <si>
+    <t>421/18767</t>
+  </si>
+  <si>
+    <t>79/18767</t>
+  </si>
+  <si>
+    <t>82/18767</t>
+  </si>
+  <si>
+    <t>226/18767</t>
+  </si>
+  <si>
+    <t>89/18767</t>
+  </si>
+  <si>
+    <t>92/18767</t>
+  </si>
+  <si>
+    <t>94/18767</t>
+  </si>
+  <si>
+    <t>39/18767</t>
+  </si>
+  <si>
+    <t>101/18767</t>
+  </si>
+  <si>
+    <t>43/18767</t>
+  </si>
+  <si>
+    <t>44/18767</t>
+  </si>
+  <si>
+    <t>45/18767</t>
+  </si>
+  <si>
+    <t>48/18767</t>
+  </si>
+  <si>
+    <t>285/18767</t>
+  </si>
+  <si>
+    <t>290/18767</t>
+  </si>
+  <si>
+    <t>59/18767</t>
+  </si>
+  <si>
+    <t>10/18767</t>
+  </si>
+  <si>
+    <t>11/18767</t>
+  </si>
+  <si>
+    <t>136/18767</t>
+  </si>
+  <si>
+    <t>16/18767</t>
+  </si>
+  <si>
+    <t>17/18767</t>
+  </si>
+  <si>
+    <t>19/18767</t>
+  </si>
+  <si>
+    <t>23/18767</t>
+  </si>
+  <si>
+    <t>191/18767</t>
+  </si>
+  <si>
+    <t>28/18767</t>
+  </si>
+  <si>
+    <t>32/18767</t>
+  </si>
+  <si>
+    <t>34/18767</t>
+  </si>
+  <si>
+    <t>121/18767</t>
+  </si>
+  <si>
+    <t>330/18767</t>
+  </si>
+  <si>
+    <t>332/18767</t>
+  </si>
+  <si>
+    <t>35/18767</t>
+  </si>
+  <si>
+    <t>125/18767</t>
+  </si>
+  <si>
+    <t>42/18767</t>
+  </si>
+  <si>
+    <t>144/18767</t>
+  </si>
+  <si>
+    <t>46/18767</t>
+  </si>
+  <si>
+    <t>56/18767</t>
+  </si>
+  <si>
+    <t>284/18767</t>
+  </si>
+  <si>
+    <t>64/18767</t>
+  </si>
+  <si>
+    <t>66/18767</t>
+  </si>
+  <si>
+    <t>68/18767</t>
+  </si>
+  <si>
+    <t>70/18767</t>
+  </si>
+  <si>
+    <t>75/18767</t>
+  </si>
+  <si>
+    <t>76/18767</t>
+  </si>
+  <si>
+    <t>328/18767</t>
+  </si>
+  <si>
+    <t>77/18767</t>
+  </si>
+  <si>
+    <t>80/18767</t>
+  </si>
+  <si>
+    <t>81/18767</t>
+  </si>
+  <si>
+    <t>209/18767</t>
+  </si>
+  <si>
+    <t>93/18767</t>
+  </si>
+  <si>
+    <t>96/18767</t>
+  </si>
+  <si>
+    <t>233/18767</t>
+  </si>
+  <si>
+    <t>99/18767</t>
+  </si>
+  <si>
+    <t>376/18767</t>
+  </si>
+  <si>
+    <t>103/18767</t>
+  </si>
+  <si>
+    <t>106/18767</t>
+  </si>
+  <si>
+    <t>107/18767</t>
+  </si>
+  <si>
+    <t>110/18767</t>
+  </si>
+  <si>
+    <t>254/18767</t>
+  </si>
+  <si>
+    <t>113/18767</t>
+  </si>
+  <si>
+    <t>118/18767</t>
+  </si>
+  <si>
+    <t>130/18767</t>
+  </si>
+  <si>
+    <t>133/18767</t>
+  </si>
+  <si>
+    <t>137/18767</t>
+  </si>
+  <si>
+    <t>458/18767</t>
+  </si>
+  <si>
+    <t>319/18767</t>
+  </si>
+  <si>
+    <t>160/18767</t>
+  </si>
+  <si>
+    <t>170/18767</t>
+  </si>
+  <si>
+    <t>374/18767</t>
+  </si>
+  <si>
+    <t>195/18767</t>
+  </si>
+  <si>
+    <t>196/18767</t>
+  </si>
+  <si>
+    <t>239/18767</t>
+  </si>
+  <si>
+    <t>240/18767</t>
+  </si>
+  <si>
+    <t>252/18767</t>
+  </si>
+  <si>
+    <t>279/18767</t>
+  </si>
+  <si>
+    <t>299/18767</t>
+  </si>
+  <si>
+    <t>302/18767</t>
+  </si>
+  <si>
+    <t>377/18767</t>
+  </si>
+  <si>
+    <t>394/18767</t>
+  </si>
+  <si>
+    <t>396/18767</t>
+  </si>
+  <si>
+    <t>423/18767</t>
   </si>
   <si>
     <t>nanos1/tdrd1/piwil2/ddx4</t>
   </si>
   <si>
+    <t>cox5ba/cox7a2a/cox6a1</t>
+  </si>
+  <si>
     <t>tdrd1/piwil2/ddx4</t>
   </si>
   <si>
-    <t>chchd3b/cox5ba/adck1/cox7a2a/cox6a1/smdt1b/p2rx3b/cyp11a1.1</t>
+    <t>chchd3b/cox5ba/cox7a2a/cox6a1/smdt1b</t>
   </si>
   <si>
     <t>chchd3b/cox5ba/adck1/cox7a2a/cox6a1/smdt1b/cyp11a1.1</t>
   </si>
   <si>
+    <t>chchd3b/cox5ba/cox7a2a/cox6a1/tomm40l/smdt1b</t>
+  </si>
+  <si>
+    <t>zgc:173556/zp2l1</t>
+  </si>
+  <si>
     <t>chchd3b/cox5ba/adck1/cox7a2a/cox6a1/tomm40l/smdt1b/cox17/cyp11a1.1</t>
   </si>
   <si>
     <t>tdrd1/pabpc1l/piwil2/ddx4</t>
   </si>
   <si>
-    <t>chchd3b/adck1/smdt1b</t>
-  </si>
-  <si>
     <t>chchd3b/cox5ba/adck1/cox7a2a/cox6a1/tomm40l/smdt1b/cyp11a1.1</t>
   </si>
   <si>
@@ -1115,51 +1160,33 @@
     <t>cldnf/cldn23.1/cldni</t>
   </si>
   <si>
-    <t>chchd3b/adck1/smdt1b/p2rx3b/mymk</t>
-  </si>
-  <si>
     <t>opn3/opn1mw4</t>
   </si>
   <si>
     <t>ttyh2l/glra3</t>
   </si>
   <si>
-    <t>chchd3b/smdt1b</t>
-  </si>
-  <si>
     <t>ppp2r2ca/ppp1r3b</t>
   </si>
   <si>
-    <t>chchd3b/cox6a1/smdt1b</t>
-  </si>
-  <si>
-    <t>chchd3b/cox6a1/tomm40l/smdt1b</t>
-  </si>
-  <si>
     <t>chchd3b</t>
   </si>
   <si>
-    <t>cox6a1</t>
-  </si>
-  <si>
-    <t>cox7a2a/cox6a1</t>
-  </si>
-  <si>
     <t>tomm40l</t>
   </si>
   <si>
-    <t>p2rx3b</t>
+    <t>ap1s1</t>
+  </si>
+  <si>
+    <t>trpc5a/smdt1b/scn4aa</t>
+  </si>
+  <si>
+    <t>ppp1r3b</t>
   </si>
   <si>
     <t>nudt21</t>
   </si>
   <si>
-    <t>ppp1r3b</t>
-  </si>
-  <si>
-    <t>trpc5a/smdt1b/scn4aa</t>
-  </si>
-  <si>
     <t>ppp2r2ca</t>
   </si>
   <si>
@@ -1169,94 +1196,88 @@
     <t>nip7</t>
   </si>
   <si>
+    <t>sumo3b</t>
+  </si>
+  <si>
+    <t>sema7a/tdgf1/zgc:194627</t>
+  </si>
+  <si>
     <t>rag2</t>
   </si>
   <si>
-    <t>sumo3b</t>
+    <t>cox17</t>
+  </si>
+  <si>
+    <t>pabpc1l</t>
+  </si>
+  <si>
+    <t>nudt21/sumo3b</t>
+  </si>
+  <si>
+    <t>sema7a/tdgf1/zgc:194627/gldn</t>
+  </si>
+  <si>
+    <t>sema7a/rgs8/tdgf1/zgc:194627</t>
+  </si>
+  <si>
+    <t>rgs8</t>
+  </si>
+  <si>
+    <t>nanos1/ap1s1</t>
+  </si>
+  <si>
+    <t>smdt1b</t>
+  </si>
+  <si>
+    <t>kitlgb</t>
+  </si>
+  <si>
+    <t>plekhf1/ldlrap1a</t>
+  </si>
+  <si>
+    <t>col15a1b</t>
+  </si>
+  <si>
+    <t>fhl2a</t>
+  </si>
+  <si>
+    <t>zgc:173556/col15a1b/zp2l1</t>
+  </si>
+  <si>
+    <t>rab25a</t>
+  </si>
+  <si>
+    <t>col15a1b/zp2l1</t>
+  </si>
+  <si>
+    <t>gins2</t>
+  </si>
+  <si>
+    <t>rgs8/htr2cl1</t>
+  </si>
+  <si>
+    <t>nip7/zgc:110269</t>
+  </si>
+  <si>
+    <t>slc12a3</t>
+  </si>
+  <si>
+    <t>eva1a</t>
+  </si>
+  <si>
+    <t>plekhf1/ldlrap1a/rab25a</t>
+  </si>
+  <si>
+    <t>glra3</t>
   </si>
   <si>
     <t>rag2/gins2</t>
   </si>
   <si>
-    <t>rgs8</t>
-  </si>
-  <si>
-    <t>pabpc1l</t>
-  </si>
-  <si>
-    <t>nanos1/ap1s1</t>
-  </si>
-  <si>
-    <t>cox17</t>
-  </si>
-  <si>
-    <t>nudt21/sumo3b</t>
-  </si>
-  <si>
-    <t>plekhf1/ldlrap1a</t>
-  </si>
-  <si>
-    <t>kitlgb</t>
-  </si>
-  <si>
-    <t>smdt1b</t>
+    <t>tuba5</t>
   </si>
   <si>
     <t>mymk</t>
-  </si>
-  <si>
-    <t>col15a1b</t>
-  </si>
-  <si>
-    <t>fhl2a</t>
-  </si>
-  <si>
-    <t>fbxl22</t>
-  </si>
-  <si>
-    <t>ap1s1</t>
-  </si>
-  <si>
-    <t>rab25a</t>
-  </si>
-  <si>
-    <t>rgs8/tdgf1/zgc:194627</t>
-  </si>
-  <si>
-    <t>rgs8/htr2cl1</t>
-  </si>
-  <si>
-    <t>tdgf1/zgc:194627/gldn</t>
-  </si>
-  <si>
-    <t>tdgf1/zgc:194627</t>
-  </si>
-  <si>
-    <t>gins2</t>
-  </si>
-  <si>
-    <t>nip7/zgc:110269</t>
-  </si>
-  <si>
-    <t>eva1a</t>
-  </si>
-  <si>
-    <t>slc12a3</t>
-  </si>
-  <si>
-    <t>plekhf1/ldlrap1a/rab25a</t>
-  </si>
-  <si>
-    <t>glra3</t>
-  </si>
-  <si>
-    <t>col15a1b/zp2l1</t>
-  </si>
-  <si>
-    <t>zp2l1</t>
-  </si>
-  <si>
-    <t>tuba5</t>
   </si>
   <si>
     <t>capga</t>
@@ -1348,25 +1369,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>4.188238695236844E-5</v>
+        <v>3.586538014133747E-5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00298809578728362</v>
+        <v>0.0027003000856258026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0025572064931823875</v>
+        <v>0.0022254615148772426</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="J2" t="n">
         <v>4.0</v>
@@ -1380,25 +1401,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F3" t="n">
-        <v>4.858692337046536E-5</v>
+        <v>4.186511760660159E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00298809578728362</v>
+        <v>0.0027003000856258026</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0025572064931823875</v>
+        <v>0.0022254615148772426</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="J3" t="n">
         <v>4.0</v>
@@ -1412,25 +1433,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F4" t="n">
-        <v>8.752462569510399E-4</v>
+        <v>6.884407685378775E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03588509653499263</v>
+        <v>0.025095570957529807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03071039498073824</v>
+        <v>0.02068260029955537</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="J4" t="n">
         <v>3.0</v>
@@ -1444,28 +1465,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0023097967599501846</v>
+        <v>7.781572389931723E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07102625036846817</v>
+        <v>0.025095570957529807</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06078412526184696</v>
+        <v>0.02068260029955537</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1476,28 +1497,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005175048967504579</v>
+        <v>0.0012101788006806096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11614517536096199</v>
+        <v>0.031222613057559728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0993968124612426</v>
+        <v>0.02573222291973507</v>
       </c>
       <c r="I6" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="J6" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1508,28 +1529,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0056656183102908285</v>
+        <v>0.0022782766193816047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11614517536096199</v>
+        <v>0.0489829473167045</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0993968124612426</v>
+        <v>0.04036946290483195</v>
       </c>
       <c r="I7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="J7" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1540,28 +1561,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00919962000764836</v>
+        <v>0.0031306815429084775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.14513300645272287</v>
+        <v>0.05769398843359908</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12420454125179535</v>
+        <v>0.04754869711785808</v>
       </c>
       <c r="I8" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -1572,28 +1593,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.010988115526902242</v>
+        <v>0.004355995829590385</v>
       </c>
       <c r="G9" t="n">
-        <v>0.14513300645272287</v>
+        <v>0.06438962628791886</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12420454125179535</v>
+        <v>0.05306692986601227</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -1604,28 +1625,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F10" t="n">
-        <v>0.011313618139093491</v>
+        <v>0.0051146776265273645</v>
       </c>
       <c r="G10" t="n">
-        <v>0.14513300645272287</v>
+        <v>0.06438962628791886</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12420454125179535</v>
+        <v>0.05306692986601227</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -1636,28 +1657,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F11" t="n">
-        <v>0.011895223828321252</v>
+        <v>0.005219525180697492</v>
       </c>
       <c r="G11" t="n">
-        <v>0.14513300645272287</v>
+        <v>0.06438962628791886</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12420454125179535</v>
+        <v>0.05306692986601227</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="J11" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -1668,28 +1689,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F12" t="n">
-        <v>0.012979374560812613</v>
+        <v>0.0057426324417811404</v>
       </c>
       <c r="G12" t="n">
-        <v>0.14513300645272287</v>
+        <v>0.06438962628791886</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12420454125179535</v>
+        <v>0.05306692986601227</v>
       </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
@@ -1700,28 +1721,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02437095624456422</v>
+        <v>0.00598973267794594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24792325460831932</v>
+        <v>0.06438962628791886</v>
       </c>
       <c r="H13" t="n">
-        <v>0.21217223329766308</v>
+        <v>0.05306692986601227</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="J13" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
@@ -1732,28 +1753,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.026635167873246626</v>
+        <v>0.009196288745028949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.24792325460831932</v>
+        <v>0.0912554806237488</v>
       </c>
       <c r="H14" t="n">
-        <v>0.21217223329766308</v>
+        <v>0.07520851524274687</v>
       </c>
       <c r="I14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1785,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.028218907028589188</v>
+        <v>0.011309567116879174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.24792325460831932</v>
+        <v>0.10420958271981524</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21217223329766308</v>
+        <v>0.085884682616902</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -1796,28 +1817,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03504350789237253</v>
+        <v>0.012206419443570567</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2574106926398335</v>
+        <v>0.10497520721470688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2202915640905721</v>
+        <v>0.0865156746526756</v>
       </c>
       <c r="I16" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -1828,28 +1849,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03765738917252342</v>
+        <v>0.02011285812095516</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2574106926398335</v>
+        <v>0.162159918600201</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2202915640905721</v>
+        <v>0.1336446493563468</v>
       </c>
       <c r="I17" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -1860,28 +1881,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03766985745948783</v>
+        <v>0.022173514393318338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2574106926398335</v>
+        <v>0.16825784451400386</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2202915640905721</v>
+        <v>0.13867027577245525</v>
       </c>
       <c r="I18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -1892,28 +1913,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03766985745948783</v>
+        <v>0.02519051306378077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2574106926398335</v>
+        <v>0.18053201029042887</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2202915640905721</v>
+        <v>0.14878607131238933</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -1924,28 +1945,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04569106626360144</v>
+        <v>0.027413437646331612</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.18612281349351464</v>
       </c>
       <c r="H20" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.1533937508188085</v>
       </c>
       <c r="I20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J20" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -1956,28 +1977,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04619862007610399</v>
+        <v>0.029843702029824108</v>
       </c>
       <c r="G21" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.1924918780923655</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.15864283710590713</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="J21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -1988,28 +2009,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04619862007610399</v>
+        <v>0.031525119882401795</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.19276087100286074</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.1588645285294895</v>
       </c>
       <c r="I22" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -2020,25 +2041,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04798202997974069</v>
+        <v>0.03287394699273594</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.19276087100286074</v>
       </c>
       <c r="H23" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.1588645285294895</v>
       </c>
       <c r="I23" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="J23" t="n">
         <v>2.0</v>
@@ -2052,28 +2073,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E24" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04979024789951789</v>
+        <v>0.03779300679035373</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.21131651200507884</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.17415722327631958</v>
       </c>
       <c r="I24" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="J24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -2084,28 +2105,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05467561206038488</v>
+        <v>0.03931469990792164</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.21131651200507884</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.17415722327631958</v>
       </c>
       <c r="I25" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="J25" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -2116,25 +2137,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05726225007136651</v>
+        <v>0.04099395537826535</v>
       </c>
       <c r="G26" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.2115288097518492</v>
       </c>
       <c r="H26" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.17433218918757054</v>
       </c>
       <c r="I26" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J26" t="n">
         <v>2.0</v>
@@ -2148,25 +2169,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05726225007136651</v>
+        <v>0.04269987364325335</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.21185706538383395</v>
       </c>
       <c r="H27" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.17460272218496312</v>
       </c>
       <c r="I27" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J27" t="n">
         <v>2.0</v>
@@ -2180,28 +2201,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05774226241387952</v>
+        <v>0.047972907354200976</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.22101803745328305</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.1821527685253496</v>
       </c>
       <c r="I28" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="J28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -2212,28 +2233,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05881882447968391</v>
+        <v>0.047972907354200976</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25838269325004004</v>
+        <v>0.22101803745328305</v>
       </c>
       <c r="H29" t="n">
-        <v>0.22112340029956357</v>
+        <v>0.1821527685253496</v>
       </c>
       <c r="I29" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -2244,28 +2265,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06260101129768227</v>
+        <v>0.05809489579756885</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26551463412465237</v>
+        <v>0.2584221226857373</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2272269012620046</v>
+        <v>0.21297947279689491</v>
       </c>
       <c r="I30" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -2276,28 +2297,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07067216980382973</v>
+        <v>0.06165619252341747</v>
       </c>
       <c r="G31" t="n">
-        <v>0.28975589619570186</v>
+        <v>0.2651216278506951</v>
       </c>
       <c r="H31" t="n">
-        <v>0.24797252562747274</v>
+        <v>0.21850089280228646</v>
       </c>
       <c r="I31" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -2308,28 +2329,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07746064822221843</v>
+        <v>0.06912731713352713</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2977622264977211</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25482432734079685</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I32" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -2340,28 +2361,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07746659551160225</v>
+        <v>0.07066488246336045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2977622264977211</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25482432734079685</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I33" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="J33" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -2372,28 +2393,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08609013581444726</v>
+        <v>0.0774526902739121</v>
       </c>
       <c r="G34" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I34" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -2404,25 +2425,25 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09089027366409119</v>
+        <v>0.0774526902739121</v>
       </c>
       <c r="G35" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I35" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="J35" t="n">
         <v>1.0</v>
@@ -2436,25 +2457,25 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09089027366409119</v>
+        <v>0.0774526902739121</v>
       </c>
       <c r="G36" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I36" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J36" t="n">
         <v>1.0</v>
@@ -2468,28 +2489,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09753212693350333</v>
+        <v>0.0776341252719204</v>
       </c>
       <c r="G37" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.2781889488910481</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.2292703699550866</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="J37" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -2500,25 +2521,25 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09753212693350333</v>
+        <v>0.1106604997946542</v>
       </c>
       <c r="G38" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.3756632756186945</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.3096041684005561</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J38" t="n">
         <v>1.0</v>
@@ -2532,25 +2553,25 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09753212693350333</v>
+        <v>0.1106604997946542</v>
       </c>
       <c r="G39" t="n">
-        <v>0.31569609507423446</v>
+        <v>0.3756632756186945</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2701720967687073</v>
+        <v>0.3096041684005561</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="J39" t="n">
         <v>1.0</v>
@@ -2564,25 +2585,25 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11067166129851358</v>
+        <v>0.11715826052891554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.34904139332608125</v>
+        <v>0.37783539020575263</v>
       </c>
       <c r="H40" t="n">
-        <v>0.29870893737790444</v>
+        <v>0.3113943240373808</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="J40" t="n">
         <v>1.0</v>
@@ -2596,28 +2617,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11827776265349826</v>
+        <v>0.11715826052891554</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3634809285496081</v>
+        <v>0.37783539020575263</v>
       </c>
       <c r="H41" t="n">
-        <v>0.31106626320034925</v>
+        <v>0.3113943240373808</v>
       </c>
       <c r="I41" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="J41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -2628,28 +2649,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1265294170938221</v>
+        <v>0.1300127300810161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3634809285496081</v>
+        <v>0.3900381902430483</v>
       </c>
       <c r="H42" t="n">
-        <v>0.31106626320034925</v>
+        <v>0.32145130326028465</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="J42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -2660,25 +2681,25 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.130025698017746</v>
+        <v>0.1300127300810161</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3634809285496081</v>
+        <v>0.3900381902430483</v>
       </c>
       <c r="H43" t="n">
-        <v>0.31106626320034925</v>
+        <v>0.32145130326028465</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J43" t="n">
         <v>1.0</v>
@@ -2692,25 +2713,25 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.130025698017746</v>
+        <v>0.1300127300810161</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3634809285496081</v>
+        <v>0.3900381902430483</v>
       </c>
       <c r="H44" t="n">
-        <v>0.31106626320034925</v>
+        <v>0.32145130326028465</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J44" t="n">
         <v>1.0</v>
@@ -2724,25 +2745,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F45" t="n">
-        <v>0.130025698017746</v>
+        <v>0.15516687898681292</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3634809285496081</v>
+        <v>0.45492107702951967</v>
       </c>
       <c r="H45" t="n">
-        <v>0.31106626320034925</v>
+        <v>0.37492475544660536</v>
       </c>
       <c r="I45" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="J45" t="n">
         <v>1.0</v>
@@ -2756,25 +2777,25 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1363836666175312</v>
+        <v>0.1613417689558061</v>
       </c>
       <c r="G46" t="n">
-        <v>0.37278202208791866</v>
+        <v>0.45943636922066017</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3190261207427631</v>
+        <v>0.37864604888850817</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J46" t="n">
         <v>1.0</v>
@@ -2788,28 +2809,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14269550645073437</v>
+        <v>0.1638300231329486</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3815553759443549</v>
+        <v>0.45943636922066017</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3265343397041976</v>
+        <v>0.37864604888850817</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="J47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -2820,25 +2841,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F48" t="n">
-        <v>0.16135756382581046</v>
+        <v>0.1674718536622597</v>
       </c>
       <c r="G48" t="n">
-        <v>0.42227617767180187</v>
+        <v>0.4596567898389681</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36138312167034814</v>
+        <v>0.37882770929200965</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J48" t="n">
         <v>1.0</v>
@@ -2852,25 +2873,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F49" t="n">
-        <v>0.17357431950766655</v>
+        <v>0.1795988959223188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4357069652947548</v>
+        <v>0.48267203279123183</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3728771632817756</v>
+        <v>0.39779580017882016</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J49" t="n">
         <v>1.0</v>
@@ -2884,25 +2905,25 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="F50" t="n">
-        <v>0.17357431950766655</v>
+        <v>0.18559649204070972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4357069652947548</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3728771632817756</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="J50" t="n">
         <v>1.0</v>
@@ -2916,28 +2937,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1813172577409255</v>
+        <v>0.2091547203433105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4460404540426767</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38172054261247473</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I51" t="s">
         <v>387</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -2948,25 +2969,25 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1974803128707795</v>
+        <v>0.2091547203433105</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4762760486883505</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4075961049964489</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="J52" t="n">
         <v>1.0</v>
@@ -2980,25 +3001,25 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2091745879720318</v>
+        <v>0.22067887658664864</v>
       </c>
       <c r="G53" t="n">
-        <v>0.49477835231845985</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H53" t="n">
-        <v>0.42343034002435587</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J53" t="n">
         <v>1.0</v>
@@ -3012,25 +3033,25 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F54" t="n">
-        <v>0.22069968055048084</v>
+        <v>0.22067887658664864</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5121898246737574</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H54" t="n">
-        <v>0.43833104379440085</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="J54" t="n">
         <v>1.0</v>
@@ -3044,28 +3065,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2292034857743894</v>
+        <v>0.22067887658664864</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5220746064861091</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4467904206128448</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I55" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -3076,28 +3097,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F56" t="n">
-        <v>0.24325200288058324</v>
+        <v>0.22110822345383732</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5342856491841382</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4572406069183896</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I56" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -3108,28 +3129,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F57" t="n">
-        <v>0.24325200288058324</v>
+        <v>0.22158262087400032</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5342856491841382</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4572406069183896</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="J57" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -3140,28 +3161,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2480818436031651</v>
+        <v>0.22467271671843345</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5353345046173563</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4581382153336382</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J58" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -3172,28 +3193,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2805373803478335</v>
+        <v>0.22637828372419389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5861688237773068</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5016421256117302</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -3204,25 +3225,25 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2811704114053748</v>
+        <v>0.22637828372419389</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5861688237773068</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5016421256117302</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I60" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J60" t="n">
         <v>1.0</v>
@@ -3236,25 +3257,25 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F61" t="n">
-        <v>0.29165352137221434</v>
+        <v>0.22637828372419389</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5978897188130393</v>
+        <v>0.48671331000701684</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5116728445126567</v>
+        <v>0.4011264325639225</v>
       </c>
       <c r="I61" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J61" t="n">
         <v>1.0</v>
@@ -3268,28 +3289,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F62" t="n">
-        <v>0.30709427892822816</v>
+        <v>0.23185922101017986</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6092354243253558</v>
+        <v>0.4903252378739869</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5213824769579425</v>
+        <v>0.4041032152205033</v>
       </c>
       <c r="I62" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="J62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -3300,25 +3321,25 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F63" t="n">
-        <v>0.30709427892822816</v>
+        <v>0.2651320624116933</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6092354243253558</v>
+        <v>0.5428894611287053</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5213824769579425</v>
+        <v>0.44742419889024265</v>
       </c>
       <c r="I63" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J63" t="n">
         <v>1.0</v>
@@ -3332,28 +3353,28 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3154292159713934</v>
+        <v>0.2651320624116933</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6158379930870062</v>
+        <v>0.5428894611287053</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5270329423080926</v>
+        <v>0.44742419889024265</v>
       </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="J64" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -3364,25 +3385,25 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F65" t="n">
-        <v>0.35619000489286456</v>
+        <v>0.2705086662808305</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6845526656534741</v>
+        <v>0.545244030472299</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5858388238369483</v>
+        <v>0.44936472523624804</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="J65" t="n">
         <v>1.0</v>
@@ -3396,25 +3417,25 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F66" t="n">
-        <v>0.37023365857515234</v>
+        <v>0.27584621769716944</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6985784279983558</v>
+        <v>0.5474486474297671</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5978420436442925</v>
+        <v>0.45118166781237434</v>
       </c>
       <c r="I66" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J66" t="n">
         <v>1.0</v>
@@ -3428,28 +3449,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3748469613649714</v>
+        <v>0.2831993206169704</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6985784279983558</v>
+        <v>0.5514370460601781</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5978420436442925</v>
+        <v>0.4544687201311953</v>
       </c>
       <c r="I67" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="J67" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
@@ -3460,25 +3481,25 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3839731606500977</v>
+        <v>0.2864052874886196</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7037230831765268</v>
+        <v>0.5514370460601781</v>
       </c>
       <c r="H68" t="n">
-        <v>0.602244829419364</v>
+        <v>0.4544687201311953</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="J68" t="n">
         <v>1.0</v>
@@ -3492,25 +3513,25 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3929670908916857</v>
+        <v>0.2968115003522843</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7037230831765268</v>
+        <v>0.5630688756683041</v>
       </c>
       <c r="H69" t="n">
-        <v>0.602244829419364</v>
+        <v>0.4640551321297325</v>
       </c>
       <c r="I69" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="J69" t="n">
         <v>1.0</v>
@@ -3524,25 +3545,25 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.40183065521627503</v>
+        <v>0.33695125059579567</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7037230831765268</v>
+        <v>0.6299523380704006</v>
       </c>
       <c r="H70" t="n">
-        <v>0.602244829419364</v>
+        <v>0.5191773655251772</v>
       </c>
       <c r="I70" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J70" t="n">
         <v>1.0</v>
@@ -3556,28 +3577,28 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F71" t="n">
-        <v>0.40183065521627503</v>
+        <v>0.3433350086859357</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7037230831765268</v>
+        <v>0.6327173731497957</v>
       </c>
       <c r="H71" t="n">
-        <v>0.602244829419364</v>
+        <v>0.5214561786057068</v>
       </c>
       <c r="I71" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="J71" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -3588,25 +3609,25 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F72" t="n">
-        <v>0.406214137443361</v>
+        <v>0.37481549602592745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7037230831765268</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H72" t="n">
-        <v>0.602244829419364</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I72" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="J72" t="n">
         <v>1.0</v>
@@ -3620,25 +3641,25 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4191741630919227</v>
+        <v>0.3839411822579488</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7062797542507738</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6044328234923182</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I73" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J73" t="n">
         <v>1.0</v>
@@ -3652,25 +3673,25 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4191741630919227</v>
+        <v>0.392934620975529</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7062797542507738</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6044328234923182</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I74" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J74" t="n">
         <v>1.0</v>
@@ -3684,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4401530909442347</v>
+        <v>0.4017977147926607</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I75" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="J75" t="n">
         <v>1.0</v>
@@ -3716,28 +3737,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F76" t="n">
-        <v>0.44748347348905626</v>
+        <v>0.4233974321516657</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I76" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="J76" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -3748,25 +3769,25 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45639319896425445</v>
+        <v>0.4233974321516657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J77" t="n">
         <v>1.0</v>
@@ -3780,28 +3801,28 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4777335114053074</v>
+        <v>0.4233974321516657</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I78" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J78" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -3812,25 +3833,25 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4836959119851376</v>
+        <v>0.42762354769816835</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J79" t="n">
         <v>1.0</v>
@@ -3844,28 +3865,28 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4953896095670418</v>
+        <v>0.42762354769816835</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I80" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -3876,28 +3897,28 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4953896095670418</v>
+        <v>0.4301030516956158</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I81" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -3908,25 +3929,25 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5017464114758894</v>
+        <v>0.4301030516956158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I82" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J82" t="n">
         <v>3.0</v>
@@ -3940,28 +3961,28 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5023465596533079</v>
+        <v>0.4318189130593234</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6793248754225941</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.559867910385002</v>
       </c>
       <c r="I83" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="J83" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -3972,25 +3993,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5132355094237722</v>
+        <v>0.44422272120026096</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6865049093869868</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5657853598375003</v>
       </c>
       <c r="I84" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="J84" t="n">
         <v>1.0</v>
@@ -4004,25 +4025,25 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5132355094237722</v>
+        <v>0.4482972910721271</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6865049093869868</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5657853598375003</v>
       </c>
       <c r="I85" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="J85" t="n">
         <v>1.0</v>
@@ -4036,28 +4057,28 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5132355094237722</v>
+        <v>0.4523481961077045</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.6865049093869868</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5657853598375003</v>
       </c>
       <c r="I86" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="J86" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -4068,28 +4089,28 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5273258018751906</v>
+        <v>0.4949391995600214</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I87" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J87" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -4100,25 +4121,25 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5273698483908877</v>
+        <v>0.49864452941223736</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I88" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="J88" t="n">
         <v>1.0</v>
@@ -4132,25 +4153,25 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5308392976096868</v>
+        <v>0.5059744237782602</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I89" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="J89" t="n">
         <v>1.0</v>
@@ -4164,28 +4185,28 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5308392976096868</v>
+        <v>0.5091852509267519</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I90" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J90" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
@@ -4196,28 +4217,28 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5410966731770366</v>
+        <v>0.5091852509267519</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I91" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="J91" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
@@ -4228,25 +4249,25 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5410966731770366</v>
+        <v>0.51677025778771</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7313724263821484</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6259070829115518</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I92" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J92" t="n">
         <v>1.0</v>
@@ -4260,28 +4281,28 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5478109262295231</v>
+        <v>0.5197645988267624</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7323993905025146</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6267859567843515</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I93" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="J93" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -4292,25 +4313,25 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.554427649114108</v>
+        <v>0.5308012136965881</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7332752778605944</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H94" t="n">
-        <v>0.627535539461356</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I94" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="J94" t="n">
         <v>1.0</v>
@@ -4324,25 +4345,25 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5799470675026462</v>
+        <v>0.5308012136965881</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7588669074768669</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6494368057140495</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I95" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="J95" t="n">
         <v>1.0</v>
@@ -4356,25 +4377,25 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F96" t="n">
-        <v>0.592157220150336</v>
+        <v>0.5410583306816822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7625414400850635</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6525814634874313</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I96" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="J96" t="n">
         <v>1.0</v>
@@ -4388,25 +4409,25 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5951542947005374</v>
+        <v>0.5444276575503713</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7625414400850635</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6525814634874313</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I97" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="J97" t="n">
         <v>1.0</v>
@@ -4420,28 +4441,28 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6089169087201897</v>
+        <v>0.5444276575503713</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7653798584031903</v>
+        <v>0.7240326579793597</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6550105762971248</v>
+        <v>0.5967139816884156</v>
       </c>
       <c r="I98" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="J98" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -4452,25 +4473,25 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6098148465326232</v>
+        <v>0.5543890072242799</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7653798584031903</v>
+        <v>0.7240793300907741</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6550105762971248</v>
+        <v>0.5967524466680391</v>
       </c>
       <c r="I99" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="J99" t="n">
         <v>1.0</v>
@@ -4484,28 +4505,28 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6234935336693804</v>
+        <v>0.5556887882091988</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7674563299987616</v>
+        <v>0.7240793300907741</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6567876166014218</v>
+        <v>0.5967524466680391</v>
       </c>
       <c r="I100" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J100" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101">
@@ -4516,25 +4537,25 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6239482357713508</v>
+        <v>0.5641341015808127</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7674563299987616</v>
+        <v>0.7277329910392484</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6567876166014218</v>
+        <v>0.5997636237859166</v>
       </c>
       <c r="I101" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="J101" t="n">
         <v>1.0</v>
@@ -4548,25 +4569,25 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6321830889493107</v>
+        <v>0.5799079724499991</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7698863360471804</v>
+        <v>0.7334130239808813</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6588672109945918</v>
+        <v>0.6044448422853448</v>
       </c>
       <c r="I102" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="J102" t="n">
         <v>1.0</v>
@@ -4580,25 +4601,25 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6428850556724083</v>
+        <v>0.5799079724499991</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7739679915349803</v>
+        <v>0.7334130239808813</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6623602837269835</v>
+        <v>0.6044448422853448</v>
       </c>
       <c r="I103" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="J103" t="n">
         <v>1.0</v>
@@ -4612,25 +4633,25 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E104" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6481195376268535</v>
+        <v>0.5890989031872356</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7739679915349803</v>
+        <v>0.7378034806908097</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6623602837269835</v>
+        <v>0.6080632521401206</v>
       </c>
       <c r="I104" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="J104" t="n">
         <v>1.0</v>
@@ -4644,25 +4665,25 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6683066558272601</v>
+        <v>0.6010436626537115</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7903513504035868</v>
+        <v>0.7455253123300845</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6763811299987905</v>
+        <v>0.6144272259921544</v>
       </c>
       <c r="I105" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J105" t="n">
         <v>1.0</v>
@@ -4676,25 +4697,25 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D106" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6755767246031255</v>
+        <v>0.6154909446326023</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7903513504035868</v>
+        <v>0.7513345422395233</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6763811299987905</v>
+        <v>0.6192149226127447</v>
       </c>
       <c r="I106" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="J106" t="n">
         <v>1.0</v>
@@ -4708,25 +4729,25 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E107" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6811157979087821</v>
+        <v>0.6185171760622126</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7903513504035868</v>
+        <v>0.7513345422395233</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6763811299987905</v>
+        <v>0.6192149226127447</v>
       </c>
       <c r="I107" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="J107" t="n">
         <v>2.0</v>
@@ -4740,25 +4761,25 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7117603774069694</v>
+        <v>0.6239087547486654</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8181918357108153</v>
+        <v>0.7513345422395233</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7002069625253019</v>
+        <v>0.6192149226127447</v>
       </c>
       <c r="I108" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J108" t="n">
         <v>1.0</v>
@@ -4772,28 +4793,28 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7393443354663661</v>
+        <v>0.6321435950124351</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8343059932326883</v>
+        <v>0.7513345422395233</v>
       </c>
       <c r="H109" t="n">
-        <v>0.713997426814453</v>
+        <v>0.6192149226127447</v>
       </c>
       <c r="I109" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J109" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
@@ -4804,28 +4825,28 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7393443354663661</v>
+        <v>0.634848566698512</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8343059932326883</v>
+        <v>0.7513345422395233</v>
       </c>
       <c r="H110" t="n">
-        <v>0.713997426814453</v>
+        <v>0.6192149226127447</v>
       </c>
       <c r="I110" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="J110" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -4836,28 +4857,28 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D111" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7532378575503438</v>
+        <v>0.6534597825628132</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8422568770790207</v>
+        <v>0.7663301086418446</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7208017775601376</v>
+        <v>0.6315735697497048</v>
       </c>
       <c r="I111" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J111" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -4868,28 +4889,28 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E112" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7742192454352749</v>
+        <v>0.6793933735683727</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8579186233201694</v>
+        <v>0.7895652719848655</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7342050691657419</v>
+        <v>0.6507229087757767</v>
       </c>
       <c r="I112" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J112" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
@@ -4900,25 +4921,25 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7887840186391153</v>
+        <v>0.6918918958555531</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8593475517570501</v>
+        <v>0.7898588899589942</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7354279433094137</v>
+        <v>0.6509648950294444</v>
       </c>
       <c r="I113" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J113" t="n">
         <v>1.0</v>
@@ -4932,25 +4953,25 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D114" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7949541074950288</v>
+        <v>0.6918918958555531</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8593475517570501</v>
+        <v>0.7898588899589942</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7354279433094137</v>
+        <v>0.6509648950294444</v>
       </c>
       <c r="I114" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="J114" t="n">
         <v>1.0</v>
@@ -4964,25 +4985,25 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D115" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7964684626040952</v>
+        <v>0.7138454166153625</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8593475517570501</v>
+        <v>0.8077724451173839</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7354279433094137</v>
+        <v>0.6657284125406427</v>
       </c>
       <c r="I115" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J115" t="n">
         <v>1.0</v>
@@ -4996,28 +5017,28 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E116" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8151735324236855</v>
+        <v>0.7609844867381798</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8718812564183767</v>
+        <v>0.8422743187166097</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7461542630880417</v>
+        <v>0.6941632492074874</v>
       </c>
       <c r="I116" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="J116" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
@@ -5028,25 +5049,25 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D117" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8232209736287784</v>
+        <v>0.7621688108955919</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8728981013477564</v>
+        <v>0.8422743187166097</v>
       </c>
       <c r="H117" t="n">
-        <v>0.7470244769771129</v>
+        <v>0.6941632492074874</v>
       </c>
       <c r="I117" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="J117" t="n">
         <v>1.0</v>
@@ -5060,25 +5081,25 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8498630069389252</v>
+        <v>0.7639232193011111</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8934457252434855</v>
+        <v>0.8422743187166097</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7646090930624608</v>
+        <v>0.6941632492074874</v>
       </c>
       <c r="I118" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J118" t="n">
         <v>1.0</v>
@@ -5092,25 +5113,25 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D119" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8715629352995033</v>
+        <v>0.8205447295564376</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9037888799329953</v>
+        <v>0.8918504042882274</v>
       </c>
       <c r="H119" t="n">
-        <v>0.773460744486945</v>
+        <v>0.7350215490257933</v>
       </c>
       <c r="I119" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="J119" t="n">
         <v>1.0</v>
@@ -5124,25 +5145,25 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8743973716424913</v>
+        <v>0.828359133734639</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9037888799329953</v>
+        <v>0.8918504042882274</v>
       </c>
       <c r="H120" t="n">
-        <v>0.773460744486945</v>
+        <v>0.7350215490257933</v>
       </c>
       <c r="I120" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J120" t="n">
         <v>1.0</v>
@@ -5156,25 +5177,25 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E121" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8980312315649588</v>
+        <v>0.8296282830588162</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9204820123540827</v>
+        <v>0.8918504042882274</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7877466943552269</v>
+        <v>0.7350215490257933</v>
       </c>
       <c r="I121" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="J121" t="n">
         <v>1.0</v>
@@ -5188,25 +5209,25 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9114973035512384</v>
+        <v>0.8441504680189796</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9265633746843166</v>
+        <v>0.8999620692103172</v>
       </c>
       <c r="H122" t="n">
-        <v>0.79295111226728</v>
+        <v>0.7417068053059326</v>
       </c>
       <c r="I122" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J122" t="n">
         <v>1.0</v>
@@ -5220,25 +5241,25 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E123" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9483245053291793</v>
+        <v>0.8724864312787568</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9560976570122053</v>
+        <v>0.9208844221846657</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8182264929501116</v>
+        <v>0.7589500337874439</v>
       </c>
       <c r="I123" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J123" t="n">
         <v>1.0</v>
@@ -5252,27 +5273,219 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D124" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" t="s">
+        <v>303</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8780525885946813</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9208844221846657</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.7589500337874439</v>
+      </c>
+      <c r="I124" t="s">
+        <v>421</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" t="s">
+        <v>364</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8901198833976293</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9211087813543867</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.7591349401615101</v>
+      </c>
+      <c r="I125" t="s">
+        <v>422</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="s">
         <v>262</v>
       </c>
-      <c r="E124" t="s">
-        <v>356</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.9587285372721159</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.9587285372721159</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.820477995098088</v>
-      </c>
-      <c r="I124" t="s">
-        <v>383</v>
-      </c>
-      <c r="J124" t="n">
+      <c r="D126" t="s">
+        <v>275</v>
+      </c>
+      <c r="E126" t="s">
+        <v>365</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8925472687542506</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9211087813543867</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.7591349401615101</v>
+      </c>
+      <c r="I126" t="s">
+        <v>416</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127" t="s">
+        <v>366</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9386011010635894</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9541330620405352</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.7863520135952187</v>
+      </c>
+      <c r="I127" t="s">
+        <v>420</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" t="s">
+        <v>275</v>
+      </c>
+      <c r="E128" t="s">
+        <v>367</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9459333601266606</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9541330620405352</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.7863520135952187</v>
+      </c>
+      <c r="I128" t="s">
+        <v>387</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" t="s">
+        <v>368</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9467366817146395</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9541330620405352</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.7863520135952187</v>
+      </c>
+      <c r="I129" t="s">
+        <v>387</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" t="s">
+        <v>275</v>
+      </c>
+      <c r="E130" t="s">
+        <v>369</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9564896122431568</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9564896122431568</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.7882941724729403</v>
+      </c>
+      <c r="I130" t="s">
+        <v>392</v>
+      </c>
+      <c r="J130" t="n">
         <v>1.0</v>
       </c>
     </row>
